--- a/medicine/Premiers secours et secourisme/Extincteur/Extincteur.xlsx
+++ b/medicine/Premiers secours et secourisme/Extincteur/Extincteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un extincteur est un appareil de lutte contre l'incendie ou les fortes chaleurs capable de projeter ou de répandre une substance appropriée — appelée « agent extincteur » — afin d'éteindre un début d'incendie. On distingue les extincteurs exclusivement destinés aux sapeurs-pompiers de ceux destinés au grand public. Ces derniers se scindent en trois catégories : portatifs, mobiles et fixes.
 </t>
@@ -511,7 +523,9 @@
           <t>Extincteurs portatifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'extincteur contient un agent qui peut être projeté sur une flamme par l'action d'une pression interne. Cette pression est fournie par une pression permanente ou par la libération d'un gaz (dioxyde de carbone) contenu dans la cartouche.
 Le recours à une cartouche de gaz (très souvent du dioxyde de carbone) facilite la vérification et la maintenance, mais aussi prévient toute déperdition. Il est cependant obligatoire de percer la cartouche avant l'utilisation de l'extincteur : la cartouche libère le gaz pour qu'il remplisse le corps métallique contenant l'agent extincteur. Une goupille protégée par un plomb marqué prévient l'utilisation accidentelle de l'appareil et garantit son intégrité.
@@ -524,7 +538,7 @@
 Extincteur à eau : détails (goupille, sérigraphie, poignée...) Bleu.
 Extincteur au CO2 : détails (goupille, signalétique) Gris.
 Il est à noter que les extincteurs équipant les automobiles ne sont pas conçus pour un usage domestique.
-Les extincteurs portent une date de fabrication, parfois de péremption[1] ou une date de révision[2].
+Les extincteurs portent une date de fabrication, parfois de péremption ou une date de révision.
 </t>
         </is>
       </c>
@@ -553,12 +567,49 @@
           <t>Agents extincteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un agent extincteur est un produit agissant sur le feu en s'opposant à la réaction de combustion.
 La lecture de ce qui suit suppose la notion de classe de feux connue.
-L'eau
-On ne rencontre quasiment pas d'extincteur à eau pure, en raison de sa faible efficacité en petites quantités. Cependant, il existe un appareil appelé Ifex 3000 qui projette des impulsions d'eau à très hautes pression et vitesse, mais qui ne partage aucun point commun avec les extincteurs classiques, sinon la portabilité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Agents extincteurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'eau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne rencontre quasiment pas d'extincteur à eau pure, en raison de sa faible efficacité en petites quantités. Cependant, il existe un appareil appelé Ifex 3000 qui projette des impulsions d'eau à très hautes pression et vitesse, mais qui ne partage aucun point commun avec les extincteurs classiques, sinon la portabilité.
 Ainsi, les extincteurs à eau contiennent presque tous un additif. Ceux-ci sont des émulseurs, c’est-à-dire des produits qui abaissent la tension superficielle de l'eau (la goutte d'eau s'étale beaucoup plus), la rendant plus mouillante, plus pénétrante et donc plus efficace. De plus ils forment une pellicule étanche à la surface du combustible, l'isolant ainsi de l'air. La solution moussante obtenue est pour ces raisons également appelée « light water » (« eau légère » en anglais). Il s'agit du même mélange utilisé pour produire de la mousse, cependant la solution n'est ici pas mélangée à l'air.
 L'émulseur le plus rencontré est l'A3F ou AFFF (Agent Formant un Film Flottant).
 Il peut être en pré-mélange dans l'eau, ou dans un réservoir à l'intérieur de l'extincteur qui, au moment de la mise en pression de l'extincteur, se perce et libère l'additif dans l'eau.
@@ -570,8 +621,43 @@
 Il existe sur le marché des extincteurs à eau pressurisée à l'azote et/ou à air comprimé. Leur réservoir est en acier inoxydable et, pour répondre aux normes des assureurs, ils sont munis d'un manomètre. Ces normes proviennent de la N.F.P.A. et des U.L. pour l'Amérique du Nord.
 Les extincteurs doivent être inspectés régulièrement au moins une fois par an et subir une inspection visuelle tous les six mois.
 De plus en plus d'extincteurs à eau pulvérisée avec additif sont produits avec un agent dit "écologique" et sans fluor ceci en prévision d'une loi de l'union européenne contre les PFAS (alkyls perfluorés et polyfluorés) en effet les extincteurs contenant un agent fluoré devraient être interdits le 4 juillet 2025. Ces appareils sont souvent commercialisés avec un code couleur vert (goupille, sérigraphie...) rappelant l'idée écologique, il ne faut pas confondre ces extincteurs avec les douches autonomes portatives (DAP) qui ne sont pas des extincteurs et présentent un corps totalement vert. 
-La mousse
-La conception et le contenu des extincteurs à mousse est identique à celle des extincteurs à eau avec additif. La solution est ici mélangée à l'air au niveau du diffuseur, qui se compose d'un simple tube mousse (un long tube doté d'une ouverture à son origine pour faire entrer l'air par l'effet Venturi) formant de la mousse à bas foisonnement (mousse lourde). La portée importante du jet demande (ou permet) de se tenir loin du liquide en feu pour éviter de le projeter et de l'étaler.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Agents extincteurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La mousse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La conception et le contenu des extincteurs à mousse est identique à celle des extincteurs à eau avec additif. La solution est ici mélangée à l'air au niveau du diffuseur, qui se compose d'un simple tube mousse (un long tube doté d'une ouverture à son origine pour faire entrer l'air par l'effet Venturi) formant de la mousse à bas foisonnement (mousse lourde). La portée importante du jet demande (ou permet) de se tenir loin du liquide en feu pour éviter de le projeter et de l'étaler.
 Il s'agit du seul agent capable d’éteindre proprement, sûrement et sans risque de réinflammation les feux de liquides (classe B). La mousse, en flottant, agit en isolant l'air de ces derniers. Ceci permet :
 D'empêcher l'air d'alimenter le feu ;
 De retenir les vapeurs du liquide pouvant s'enflammer ou causer une réinflammation : on peut ainsi couvrir de mousse une surface de manière préventive afin d'éviter tout risque d'inflammation.
@@ -579,37 +665,305 @@
 Suivant l'additif utilisé et le foisonnement, ils peuvent agir sur les feux de classe A, bien que l'eau pulvérisée reste préférable en raison de sa plus grande capacité de refroidissement.
 L'additif utilisé conditionne l'efficacité de la mousse sur les feux d'hydrocarbures ou sur les produits polaires (solubles dans l'eau). L'AFFF est particulièrement efficace sur les premiers, formant lors de la décantation de la mousse un film aqueux à leur surface. Sur les polaires, il a tendance à former un gel. Il s'agit de l'émulseur le plus rencontré dans les extincteurs.
 La mousse est inutilisable sur des feux d'installations électriques, car elle est conductrice. Concernant la corrosion, les mêmes remarques que pour l'eau s'appliquent à la mousse.
-Poudres
-Les extincteurs à poudre contiennent une poudre chimique qui agit de plusieurs manières, principalement en inhibant le feu et en isolant le combustible (voir plus bas). Elle n'a aucun pouvoir refroidissant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Agents extincteurs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poudres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les extincteurs à poudre contiennent une poudre chimique qui agit de plusieurs manières, principalement en inhibant le feu et en isolant le combustible (voir plus bas). Elle n'a aucun pouvoir refroidissant.
 Les extincteurs à poudre sont irrespectueux des biens de valeur. En effet, la poudre s’insinue partout, elle est abrasive et mélangée à l’eau elle devient fortement corrosive (notamment sur les circuits électriques). Afin de réparer les dégâts, il existe des firmes spécialisées dans le nettoyage après l’utilisation d’extincteurs à poudre. Les nuages de poudre qu'ils provoquent réduisent beaucoup la visibilité du sinistre, et sont très fortement irritants. De plus, ils engendrent une forte déperdition de l'agent extincteur, car une partie n'atteint pas le foyer.
 Ce sont les extincteurs qui éteignent le feu le plus rapidement, mais pas forcément d'une façon définitive. Sur les liquides (classe B), la poudre rend la réinflammation difficile mais pas impossible. Il est souvent nécessaire de consolider l'extinction par la mousse. La poudre est le seul agent extincteur efficace sur les feux de gaz (classe C) de grande ampleur.
 Ils sont sensibles aux vibrations qui tassent la poudre, l'empêchant de sortir correctement.
-On distingue trois types de poudre[3] :
-Poudres BC (feux de classes B et C)
-Elle est composée principalement de bicarbonate de sodium ou de bicarbonate de potassium (85-95 %) qui sous l'effet de la chaleur se décomposent en dégageant notamment du CO2. Ils ont également une action inhibitrice sur les réactions chimiques au sein de la combustion.
+On distingue trois types de poudre :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Agents extincteurs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poudres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Poudres BC (feux de classes B et C)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est composée principalement de bicarbonate de sodium ou de bicarbonate de potassium (85-95 %) qui sous l'effet de la chaleur se décomposent en dégageant notamment du CO2. Ils ont également une action inhibitrice sur les réactions chimiques au sein de la combustion.
 On leur adjoint souvent 1-12 % de mica muscovite (silicate de potassium et d'aluminium) ou de terre à foulon (silicate de magnésium et d'aluminium) pour rendre la poudre moins volatile.
-Enfin on trouve un petit pourcentage de stéarates (de calcium notamment), de gel de silice et d'huile de silicone (polysiloxane méthylé et hydrogéné), afin d'éviter que la poudre ne s'agglomère sous l'effet de l'humidité. La plupart de ces poudres sont également dotées de pigments bleus ou violets pour les distinguer[4],[5].
+Enfin on trouve un petit pourcentage de stéarates (de calcium notamment), de gel de silice et d'huile de silicone (polysiloxane méthylé et hydrogéné), afin d'éviter que la poudre ne s'agglomère sous l'effet de l'humidité. La plupart de ces poudres sont également dotées de pigments bleus ou violets pour les distinguer,.
 Ils sont presque exclusivement destinés au secteur de l’automobile ou de l'industrie.
-Poudre ABC (feux de classes A, B et C)
-Elle est composée principalement (jusqu'à 9%) de phosphate ou sulfate d'ammonium, de phosphate monoamonique ou de carbamate ou bicarbonate de sodium. Les sels d'ammonium ont la propriété de fondre sous l'effet de la chaleur et de former à la surface des solides une croûte les isolant de l'air[6]. C'est ce qui rend cette poudre utilisable aussi bien sur les feux de classe A, B ou C.
-On leur adjoint souvent 1-5 % de mica muscovite (silicate de potassium et d'aluminium) ou de terre à foulon (silicate de magnésium et d'aluminium) pour rendre la poudre moins volatile. Enfin on trouve des fractions d'huile de silicone (polysiloxane méthylé et hydrogéné) afin d'empêcher que la poudre ne s'agglomère sous l'effet de l'humidité. Certaines de ces poudres sont également dotées de pigments bleus ou jaunes[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Agents extincteurs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poudres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Poudre ABC (feux de classes A, B et C)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est composée principalement (jusqu'à 9%) de phosphate ou sulfate d'ammonium, de phosphate monoamonique ou de carbamate ou bicarbonate de sodium. Les sels d'ammonium ont la propriété de fondre sous l'effet de la chaleur et de former à la surface des solides une croûte les isolant de l'air. C'est ce qui rend cette poudre utilisable aussi bien sur les feux de classe A, B ou C.
+On leur adjoint souvent 1-5 % de mica muscovite (silicate de potassium et d'aluminium) ou de terre à foulon (silicate de magnésium et d'aluminium) pour rendre la poudre moins volatile. Enfin on trouve des fractions d'huile de silicone (polysiloxane méthylé et hydrogéné) afin d'empêcher que la poudre ne s'agglomère sous l'effet de l'humidité. Certaines de ces poudres sont également dotées de pigments bleus ou jaunes.
 Ce sont les extincteurs les plus polyvalents et les plus vendus.
-Poudre D (feux de classe D)
-Elle est principalement composée (80-90 %) de carbonate ou chlorure de sodium et de phosphate de calcium. On lui ajoute quelques pour cent de stéarate de zinc ou de magnésium et parfois 1-5 % de mica muscovite (silicate de potassium et d'aluminium) ou de terre à foulon (silicate de magnésium et d'aluminium) pour rendre la poudre moins volatile, ainsi que du gel de silice pour éviter qu'elle ne s'agglomère[8]. On rencontre également de la poudre de ciment, du laitier, des grenailles de fonte qui aident à former une croûte en fondant. Certains contiennent de la poudre de cuivre, dont le rôle est de dissiper la chaleur par conduction ; il est recommandé pour les feux de lithium[9].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Agents extincteurs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poudres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Poudre D (feux de classe D)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est principalement composée (80-90 %) de carbonate ou chlorure de sodium et de phosphate de calcium. On lui ajoute quelques pour cent de stéarate de zinc ou de magnésium et parfois 1-5 % de mica muscovite (silicate de potassium et d'aluminium) ou de terre à foulon (silicate de magnésium et d'aluminium) pour rendre la poudre moins volatile, ainsi que du gel de silice pour éviter qu'elle ne s'agglomère. On rencontre également de la poudre de ciment, du laitier, des grenailles de fonte qui aident à former une croûte en fondant. Certains contiennent de la poudre de cuivre, dont le rôle est de dissiper la chaleur par conduction ; il est recommandé pour les feux de lithium.
 On rencontre ce type de poudre dans des environnements spéciaux : industries, laboratoires, etc.  bien que les transports et la construction utilisent de plus en plus de métaux inflammables. En raison du caractère très particulier des feux de métaux, la poudre D sert principalement à isoler le feu sous une croûte afin d'éviter sa propagation et dans le meilleur cas de l'étouffer. La composition de la poudre va ainsi dépendre du métal particulier à éteindre.
-Gaz
-Dioxyde de carbone
-Le dioxyde de carbone (CO2) agit principalement par étouffement, en diminuant fortement la concentration d'oxygène alimentant le feu. Dans une très moindre mesure, il agit par refroidissement au vu de sa température de sortie de -78 °C ; sur de petits feux il peut également souffler la flamme (séparer le combustible du feu). Il est ainsi capable d'agir sur les trois côtés du triangle du feu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Agents extincteurs</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Gaz</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Dioxyde de carbone</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dioxyde de carbone (CO2) agit principalement par étouffement, en diminuant fortement la concentration d'oxygène alimentant le feu. Dans une très moindre mesure, il agit par refroidissement au vu de sa température de sortie de -78 °C ; sur de petits feux il peut également souffler la flamme (séparer le combustible du feu). Il est ainsi capable d'agir sur les trois côtés du triangle du feu.
 Le gaz est stocké sous forme liquide à une pression permanente de 50 bar avec une valve de sécurité se déclenchant à 200 bar ; il est inodore, incolore (bien qu'il forme un nuage blanc en se condensant à la sortie de l'extincteur) et non toxique à faible dose. En raison de sa détente, le gaz sort à -78 °C, faisant courir des risques de gelures. Le diffuseur prend la forme d'un tromblon conique favorisant la détente du gaz et son guidage. Les modèles de moins de 5 kg ne comportent généralement pas de tuyau et le tromblon est fixé directement dessus.
 Le CO2 est un gaz volatil ; plus lourd que l'air à température ambiante il devient plus léger dès 179 °C. Pour assurer une extinction complète, il est donc nécessaire de couvrir simultanément toute la surface en feu, car le gaz ne reste au mieux que quelques instants à son contact.
 Il est efficace sur les petits feux de liquides (classe B) avec une efficacité limitée lorsque le liquide en feu a atteint son point d'auto-inflammation : il se ré-enflamme spontanément après extinction ; le CO2 n'est vraiment efficace que sur les feux naissants. 
 Il est efficace sur les petits feux de gaz (classe C) selon le principe énoncé mais n'est pas homologué pour. Il est utilisable sur les feux de solides (classe A) lorsque ceux-ci sont très peu épais (tissu, papier, etc.) et ne forment pas de braise. En revanche, la forte inertie thermique des feux de solides épais ou formant des braises le rend inefficace sur ce type de foyer.
 Il se distingue par sa capacité à refroidir des appareils électriques en surchauffe (pour des tensions inférieures à 5 kV). L'opérateur doit cependant être attentif au risque d'explosion d'objets brutalement refroidis par le dioxyde de carbone. Les extincteurs à CO2 sont les seuls dont le tromblon, tant qu'il est sec, peut servir à séparer de la source d'électricité une victime en train de s'électriser. Le CO2 ne laisse aucun résidu et ne cause aucun dégât, ce qui en fait le seul agent utilisable dans un environnement informatique ou une cuisine par exemple. Cet extincteur est le plus lourd parmi les matériels d'extinction. Il est également très sensible à la chaleur, lors de l'utilisation et du stockage.
-Halon
-Il existe une cinquième catégorie : celle des extincteurs dont le contenu appartient à la famille des halons ; famille qui est en voie de disparition. En effet ces gaz sont visés par le Protocole de Montréal qui est un accord international visant à réduire et à terme éliminer complètement les substances qui appauvrissent la couche d'ozone. Il a été signé actuellement par 197 pays (ratification universelle) et l'Union européenne. Cette catégorie était fonctionnellement similaire, bien que nettement plus efficace que les extincteurs à CO2 car ils pouvaient être utilisés à une température bien plus élevée. Leur caractéristique principale est de se lier chimiquement à l'oxygène, ce qui étouffe le feu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Agents extincteurs</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gaz</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Halon</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une cinquième catégorie : celle des extincteurs dont le contenu appartient à la famille des halons ; famille qui est en voie de disparition. En effet ces gaz sont visés par le Protocole de Montréal qui est un accord international visant à réduire et à terme éliminer complètement les substances qui appauvrissent la couche d'ozone. Il a été signé actuellement par 197 pays (ratification universelle) et l'Union européenne. Cette catégorie était fonctionnellement similaire, bien que nettement plus efficace que les extincteurs à CO2 car ils pouvaient être utilisés à une température bien plus élevée. Leur caractéristique principale est de se lier chimiquement à l'oxygène, ce qui étouffe le feu.
 Ils sont encore utilisés dans l'aviation et certaines applications qualifiées de critiques (nucléaire, sécurité nationale, applications militaires...).
-Autres gaz
-Des alternatives aux halons existent sur le marché :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Agents extincteurs</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Gaz</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Autres gaz</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des alternatives aux halons existent sur le marché :
 Argonite : 50 % d'argon et 50 % de diazote ;
 Inergen : 52 % de diazote, 40 % d'argon et 8 % de CO2 ;
 HFC-125 ;
@@ -620,31 +974,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Extincteur</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Extincteurs mobiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Les extincteurs de cette catégorie sont similaires dans leurs agents et leur fonctionnement aux extincteurs portatifs, mais ils disposent d'un plus grand volume d'agent extincteur (20 à 200 kg), ce qui accroît leur autonomie et leur efficacité. Ils sont montés sur un châssis muni de roues et disposent d'un tuyau beaucoup plus long, avec parfois une lance-pistolet. Leur cartouche de gaz est souvent externe.
 On en trouve dans les aéroports, les entrepôts, les stations-services, etc.
@@ -652,31 +1008,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Extincteur</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Extincteurs fixes (IFEA)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve également des installations d'extinctions fixes. Elles sont composées d'une réserve d'agent extincteur (souvent sous pression permanente), d'une tuyauterie pour l'acheminer et d'un système de déclenchement automatique ou manuel.
 On en trouve, à des échelles très différentes :
@@ -690,31 +1048,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Extincteur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Boules anti-feu</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a quelques années, des boules « anti-feu » sont apparues sur le marché pour les extinctions de départs de feux. Elles se présentent sous la forme d'une balle (de la taille ballon de handball) pesant environ d'1,3 kg et de couleur différente selon les marques (pas de couleur imposée par la réglementation). Elles ont pour fonction de se déclencher automatiquement au contact des flammes, en diffusant une poudre d'extinction de type ABC et générant lors du déclenchement un bruit d'impact de 120 dB permettant d'alerter du départ de feu. Ces équipements n'entrent pas réellement dans les catégories classiques des extincteurs tels qu'on les connait. 
 Si elles ne remplacent pas les extincteurs obligatoires, les boules extinctrices présentent néanmoins plusieurs avantages : 
@@ -728,34 +1088,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Extincteur</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Cadre légal</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France
-Les obligations concernant la mise en place d’un extincteur dans un établissement recevant du public ou dans une entreprise sont édictées par le décret du 7 mars 2008 relatif au code du travail (Article R4227-29).
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Les obligations concernant la mise en place d’un extincteur dans un établissement recevant du public ou dans une entreprise sont édictées par le décret du 7 mars 2008 relatif au code du travail (Article R4227-29).
 Le premier secours contre l'incendie est assuré par des extincteurs en nombre suffisant et maintenus en bon état de fonctionnement.
 Il existe au moins un extincteur portatif à eau pulvérisée d'une capacité minimale de 6 litres pour 200 mètres carrés de plancher.
 Il existe au moins un appareil par niveau.
@@ -777,9 +1142,43 @@
 À l'issue de la dixième année :
 Réépreuve par le service des mines des extincteurs à CO2 ; par rapport à la dernière épreuve.
 Maintenance décenalle des extincteurs à pression auxiliaire, test normalisé à pression de service, remplacement complet de la charge extinctrice et des diverses pièces d'usures (percuteur, joints, lance etc...).
-Remplacement réforme des extincteurs à pression permanente.
-Mode opératoire
-L'utilisateur doit vérifier que la classe de l'extincteur est adaptée au feu ;
+Remplacement réforme des extincteurs à pression permanente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cadre légal</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mode opératoire</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilisateur doit vérifier que la classe de l'extincteur est adaptée au feu ;
 il enlève la goupille ;
 s'il s'agit d'un extincteur à pression auxiliaire, il percute la poignée / bouton poussoir pour libérer le gaz de la cartouche, en détournant le visage du flexible, et de la tête de l'extincteur;
 une brève pression sur la poignée d'éjection permet, à distance du foyer, de vérifier que l'extincteur fonctionne (une prise par les deux mains est souhaitable afin d'éviter un coup dû au recul de la lance) ;
@@ -804,34 +1203,39 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Extincteur</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Extincteur</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Extincteur</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formation des utilisateurs
-Un extincteur est efficace si l'utilisateur en connait les caractéristiques et s'est familiarisé à sa manipulation. En effet, une utilisation impropre de l'extincteur est dangereuse et peut amplifier le risque (éparpillement du combustible, création d'un nuage de poussière susceptible d'exploser…).
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Formation des utilisateurs</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un extincteur est efficace si l'utilisateur en connait les caractéristiques et s'est familiarisé à sa manipulation. En effet, une utilisation impropre de l'extincteur est dangereuse et peut amplifier le risque (éparpillement du combustible, création d'un nuage de poussière susceptible d'exploser…).
 L'utilisateur doit savoir différencier :
 L'éclosion du feu qu'un extincteur peut combattre,
 L'incendie constitué qui est du ressort des services de secours.
